--- a/Heatwaves_warning_system_Datathon.xlsx
+++ b/Heatwaves_warning_system_Datathon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="199">
   <si>
     <t>Country Name</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Hong Kong, China</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -332,9 +323,6 @@
     <t>Kyrgyzstan</t>
   </si>
   <si>
-    <t>Lao People’s Democratic Republic</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -386,9 +374,6 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia (Federated States of)</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -473,12 +458,6 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
-    <t>Republic of Moldova</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -554,9 +533,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
     <t>Tajikistan</t>
   </si>
   <si>
@@ -593,15 +569,6 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>United Kingdom of Great Britain and Northern Ireland</t>
-  </si>
-  <si>
-    <t>United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -611,9 +578,6 @@
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
@@ -624,6 +588,39 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao </t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moldova</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tanzania</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
   </si>
 </sst>
 </file>
@@ -932,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1157,7 @@
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -1170,7 +1167,7 @@
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -1180,7 +1177,7 @@
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1200,7 +1197,7 @@
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -1210,7 +1207,7 @@
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -1220,7 +1217,7 @@
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
@@ -1230,7 +1227,7 @@
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -1240,7 +1237,7 @@
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -1250,7 +1247,7 @@
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
@@ -1260,7 +1257,7 @@
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -1270,7 +1267,7 @@
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
@@ -1280,7 +1277,7 @@
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
@@ -1300,7 +1297,7 @@
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
@@ -1310,7 +1307,7 @@
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>8</v>
@@ -1320,7 +1317,7 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>8</v>
@@ -1330,7 +1327,7 @@
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
@@ -1340,7 +1337,7 @@
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
@@ -1350,7 +1347,7 @@
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
@@ -1370,7 +1367,7 @@
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>8</v>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>8</v>
@@ -1390,7 +1387,7 @@
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -1400,7 +1397,7 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -1410,7 +1407,7 @@
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -1420,7 +1417,7 @@
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>8</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>8</v>
@@ -1440,7 +1437,7 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
@@ -1450,7 +1447,7 @@
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>5</v>
@@ -1460,7 +1457,7 @@
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>8</v>
@@ -1470,7 +1467,7 @@
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>11</v>
@@ -1480,7 +1477,7 @@
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>11</v>
@@ -1490,7 +1487,7 @@
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>11</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>8</v>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>8</v>
@@ -1520,7 +1517,7 @@
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>8</v>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
@@ -1540,7 +1537,7 @@
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>8</v>
@@ -1550,7 +1547,7 @@
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
@@ -1560,7 +1557,7 @@
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
@@ -1570,7 +1567,7 @@
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>5</v>
@@ -1580,7 +1577,7 @@
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>8</v>
@@ -1590,7 +1587,7 @@
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>8</v>
@@ -1600,7 +1597,7 @@
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
@@ -1610,7 +1607,7 @@
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>11</v>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>11</v>
@@ -1630,7 +1627,7 @@
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
@@ -1640,7 +1637,7 @@
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>8</v>
@@ -1649,7 +1646,7 @@
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>11</v>
@@ -1658,7 +1655,7 @@
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>8</v>
@@ -1667,7 +1664,7 @@
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>11</v>
@@ -1676,7 +1673,7 @@
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>11</v>
@@ -1685,7 +1682,7 @@
     </row>
     <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>8</v>
@@ -1694,7 +1691,7 @@
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>8</v>
@@ -1703,7 +1700,7 @@
     </row>
     <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>5</v>
@@ -1712,7 +1709,7 @@
     </row>
     <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>5</v>
@@ -1721,7 +1718,7 @@
     </row>
     <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>8</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>8</v>
@@ -1739,7 +1736,7 @@
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>5</v>
@@ -1748,7 +1745,7 @@
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>8</v>
@@ -1757,7 +1754,7 @@
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>5</v>
@@ -1766,7 +1763,7 @@
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>5</v>
@@ -1775,7 +1772,7 @@
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>8</v>
@@ -1784,7 +1781,7 @@
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>8</v>
@@ -1793,7 +1790,7 @@
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>5</v>
@@ -1802,7 +1799,7 @@
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>8</v>
@@ -1811,7 +1808,7 @@
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>11</v>
@@ -1820,7 +1817,7 @@
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>8</v>
@@ -1829,7 +1826,7 @@
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>5</v>
@@ -1838,7 +1835,7 @@
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>5</v>
@@ -1847,7 +1844,7 @@
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>11</v>
@@ -1856,7 +1853,7 @@
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>5</v>
@@ -1865,7 +1862,7 @@
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>5</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>5</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>11</v>
@@ -1892,7 +1889,7 @@
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>5</v>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>5</v>
@@ -1910,7 +1907,7 @@
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>5</v>
@@ -1919,7 +1916,7 @@
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>5</v>
@@ -1928,7 +1925,7 @@
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>8</v>
@@ -1937,7 +1934,7 @@
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>5</v>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>5</v>
@@ -1955,7 +1952,7 @@
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>8</v>
@@ -1964,7 +1961,7 @@
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>8</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>8</v>
@@ -1982,7 +1979,7 @@
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>8</v>
@@ -1991,7 +1988,7 @@
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>5</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>8</v>
@@ -2009,7 +2006,7 @@
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>5</v>
@@ -2018,7 +2015,7 @@
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>8</v>
@@ -2027,7 +2024,7 @@
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>8</v>
@@ -2036,7 +2033,7 @@
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>8</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>5</v>
@@ -2054,7 +2051,7 @@
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>5</v>
@@ -2063,7 +2060,7 @@
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>8</v>
@@ -2072,7 +2069,7 @@
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>8</v>
@@ -2081,7 +2078,7 @@
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>8</v>
@@ -2090,7 +2087,7 @@
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>5</v>
@@ -2099,7 +2096,7 @@
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>8</v>
@@ -2108,7 +2105,7 @@
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>8</v>
@@ -2117,7 +2114,7 @@
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>5</v>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>5</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>8</v>
@@ -2144,7 +2141,7 @@
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>5</v>
@@ -2153,7 +2150,7 @@
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>5</v>
@@ -2162,7 +2159,7 @@
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>5</v>
@@ -2171,7 +2168,7 @@
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>8</v>
@@ -2180,7 +2177,7 @@
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>8</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>5</v>
@@ -2198,7 +2195,7 @@
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>8</v>
@@ -2207,7 +2204,7 @@
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>8</v>
@@ -2216,7 +2213,7 @@
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>5</v>
@@ -2225,7 +2222,7 @@
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>5</v>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>5</v>
@@ -2243,7 +2240,7 @@
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>5</v>
@@ -2252,7 +2249,7 @@
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>8</v>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>8</v>
@@ -2270,7 +2267,7 @@
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>5</v>
@@ -2279,7 +2276,7 @@
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>8</v>
@@ -2288,7 +2285,7 @@
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>5</v>
@@ -2297,7 +2294,7 @@
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>5</v>
@@ -2306,7 +2303,7 @@
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>8</v>
@@ -2315,7 +2312,7 @@
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>8</v>
@@ -2324,7 +2321,7 @@
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>5</v>
@@ -2333,7 +2330,7 @@
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>8</v>
@@ -2342,7 +2339,7 @@
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>5</v>
@@ -2351,7 +2348,7 @@
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>5</v>
@@ -2360,7 +2357,7 @@
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>5</v>
@@ -2369,7 +2366,7 @@
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>5</v>
@@ -2378,7 +2375,7 @@
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>5</v>
@@ -2387,7 +2384,7 @@
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>8</v>
@@ -2396,7 +2393,7 @@
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>8</v>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>8</v>
@@ -2414,7 +2411,7 @@
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>11</v>
@@ -2423,7 +2420,7 @@
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>8</v>
@@ -2432,7 +2429,7 @@
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>8</v>
@@ -2441,7 +2438,7 @@
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>8</v>
@@ -2450,7 +2447,7 @@
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>8</v>
@@ -2459,7 +2456,7 @@
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>5</v>
@@ -2468,7 +2465,7 @@
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>5</v>
@@ -2477,7 +2474,7 @@
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>8</v>
@@ -2486,7 +2483,7 @@
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>11</v>
@@ -2495,7 +2492,7 @@
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>8</v>
@@ -2504,7 +2501,7 @@
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>5</v>
@@ -2513,7 +2510,7 @@
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>8</v>
@@ -2522,7 +2519,7 @@
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>5</v>
@@ -2531,7 +2528,7 @@
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>8</v>
@@ -2540,7 +2537,7 @@
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>8</v>
@@ -2549,7 +2546,7 @@
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>5</v>
@@ -2558,7 +2555,7 @@
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>5</v>
@@ -2567,7 +2564,7 @@
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>11</v>
@@ -2576,7 +2573,7 @@
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>5</v>
@@ -2585,7 +2582,7 @@
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>11</v>
@@ -2594,7 +2591,7 @@
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>5</v>
@@ -2603,7 +2600,7 @@
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>8</v>
@@ -2612,7 +2609,7 @@
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>8</v>
@@ -2621,7 +2618,7 @@
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>5</v>
@@ -2630,7 +2627,7 @@
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>11</v>
@@ -2639,7 +2636,7 @@
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>5</v>
@@ -2648,7 +2645,7 @@
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>8</v>
@@ -2657,7 +2654,7 @@
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>11</v>
@@ -2666,7 +2663,7 @@
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>8</v>
@@ -2675,7 +2672,7 @@
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>8</v>
@@ -2684,7 +2681,7 @@
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>8</v>
@@ -2693,7 +2690,7 @@
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>8</v>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>5</v>
@@ -2711,7 +2708,7 @@
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>5</v>
@@ -2720,7 +2717,7 @@
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>5</v>
@@ -2729,7 +2726,7 @@
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>8</v>
@@ -2738,7 +2735,7 @@
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>5</v>
@@ -2747,7 +2744,7 @@
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>5</v>
@@ -2756,7 +2753,7 @@
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>8</v>
